--- a/biology/Médecine/1154_en_santé_et_médecine/1154_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1154_en_santé_et_médecine/1154_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1154_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1154_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1154 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1154_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1154_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8 avril : charte de donation aux chevaliers de Saint-Jean de Jérusalem de la terre de Benon par Garsion, seigneur de Lamarque, acte qui peut être  considéré comme fondateur de l'hôpital du lieu[1].
-À Damas, en Syrie, l'émir zengide Nur ad-Din ordonne la construction d'un hôpital qui sera « l'un des grands centres d'éducation médicale en Syrie » et qui restera en fonction jusqu'au XIXe siècle[2].
-Le roi Louis VII fait don de son domaine de Boigny, près d'Orléans, aux hospitaliers de Saint-Lazare pour qu'ils y installent une léproserie[3].
-Un hôpital « situé près de la Citerne » est mentionné à Figline Valdarno en Toscane[4].
-1154-1156 : Guigues II, comte de Forez, fonde hors les murs de Montbrison un hôpital qu'il confie aux frères de Saint-Jean de Jérusalem[5].
-1154-1159 : fondation de l'hôpital de Stagno, en Toscane, par Villano, archevêque de Pise[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>8 avril : charte de donation aux chevaliers de Saint-Jean de Jérusalem de la terre de Benon par Garsion, seigneur de Lamarque, acte qui peut être  considéré comme fondateur de l'hôpital du lieu.
+À Damas, en Syrie, l'émir zengide Nur ad-Din ordonne la construction d'un hôpital qui sera « l'un des grands centres d'éducation médicale en Syrie » et qui restera en fonction jusqu'au XIXe siècle.
+Le roi Louis VII fait don de son domaine de Boigny, près d'Orléans, aux hospitaliers de Saint-Lazare pour qu'ils y installent une léproserie.
+Un hôpital « situé près de la Citerne » est mentionné à Figline Valdarno en Toscane.
+1154-1156 : Guigues II, comte de Forez, fonde hors les murs de Montbrison un hôpital qu'il confie aux frères de Saint-Jean de Jérusalem.
+1154-1159 : fondation de l'hôpital de Stagno, en Toscane, par Villano, archevêque de Pise.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1154_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1154_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Achèvement du Codex Guta-Sintram, homéliaire compilé et enluminé par Guta, chanoinesse à Schwartzenthann, et Sintram, chanoine à Marbach, et qui comprend des préceptes de diététique et d'hygiène qui en font « le premier traité de pharmacie et de médecine connu en Alsace[7] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Achèvement du Codex Guta-Sintram, homéliaire compilé et enluminé par Guta, chanoinesse à Schwartzenthann, et Sintram, chanoine à Marbach, et qui comprend des préceptes de diététique et d'hygiène qui en font « le premier traité de pharmacie et de médecine connu en Alsace ».</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1154_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1154_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1154-1174 : fl. Manassès de Villamauri, chirurgien et archidiacre, cité dans des chartes d'Henri de Carinthie et de Matthieu, évêques de Troyes[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1154-1174 : fl. Manassès de Villamauri, chirurgien et archidiacre, cité dans des chartes d'Henri de Carinthie et de Matthieu, évêques de Troyes.
 </t>
         </is>
       </c>
